--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H2">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I2">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J2">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>213.2179269661789</v>
+        <v>272.1938311403076</v>
       </c>
       <c r="R2">
-        <v>213.2179269661789</v>
+        <v>2449.744480262768</v>
       </c>
       <c r="S2">
-        <v>0.003858775502199575</v>
+        <v>0.00433591818947511</v>
       </c>
       <c r="T2">
-        <v>0.003858775502199575</v>
+        <v>0.005574184833618226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H3">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I3">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J3">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>238.7970424741202</v>
+        <v>291.2866053639133</v>
       </c>
       <c r="R3">
-        <v>238.7970424741202</v>
+        <v>2621.57944827522</v>
       </c>
       <c r="S3">
-        <v>0.004321701231261907</v>
+        <v>0.004640056996357183</v>
       </c>
       <c r="T3">
-        <v>0.004321701231261907</v>
+        <v>0.005965180662080115</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H4">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I4">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J4">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>122.8546212774149</v>
+        <v>146.2645206486729</v>
       </c>
       <c r="R4">
-        <v>122.8546212774149</v>
+        <v>1316.380685838056</v>
       </c>
       <c r="S4">
-        <v>0.00222339842461977</v>
+        <v>0.002329924204742658</v>
       </c>
       <c r="T4">
-        <v>0.00222339842461977</v>
+        <v>0.002995312088009839</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H5">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I5">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J5">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>146.1624523607898</v>
+        <v>167.1081765714398</v>
       </c>
       <c r="R5">
-        <v>146.1624523607898</v>
+        <v>1503.973589142958</v>
       </c>
       <c r="S5">
-        <v>0.002645218901320115</v>
+        <v>0.002661953723824961</v>
       </c>
       <c r="T5">
-        <v>0.002645218901320115</v>
+        <v>0.003422163755570055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.72306883231591</v>
+        <v>1.969292666666667</v>
       </c>
       <c r="H6">
-        <v>1.72306883231591</v>
+        <v>5.907878</v>
       </c>
       <c r="I6">
-        <v>0.01826875689139362</v>
+        <v>0.01927739905292307</v>
       </c>
       <c r="J6">
-        <v>0.01826875689139362</v>
+        <v>0.02250741773403226</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>288.4142101206495</v>
+        <v>333.314787656783</v>
       </c>
       <c r="R6">
-        <v>288.4142101206495</v>
+        <v>1999.888725940698</v>
       </c>
       <c r="S6">
-        <v>0.005219662831992255</v>
+        <v>0.005309545938523162</v>
       </c>
       <c r="T6">
-        <v>0.005219662831992255</v>
+        <v>0.004550576394754023</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H7">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J7">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>6475.892564258278</v>
+        <v>7749.26914477329</v>
       </c>
       <c r="R7">
-        <v>6475.892564258278</v>
+        <v>69743.42230295962</v>
       </c>
       <c r="S7">
-        <v>0.1171994115945047</v>
+        <v>0.1234421694981062</v>
       </c>
       <c r="T7">
-        <v>0.1171994115945047</v>
+        <v>0.1586952149409838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H8">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J8">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>7252.785981594881</v>
+        <v>8292.834168121833</v>
       </c>
       <c r="R8">
-        <v>7252.785981594881</v>
+        <v>74635.5075130965</v>
       </c>
       <c r="S8">
-        <v>0.1312594736600838</v>
+        <v>0.1321009016303731</v>
       </c>
       <c r="T8">
-        <v>0.1312594736600838</v>
+        <v>0.1698267380050497</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H9">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J9">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>3731.362272091581</v>
+        <v>4164.102955932022</v>
       </c>
       <c r="R9">
-        <v>3731.362272091581</v>
+        <v>37476.9266033882</v>
       </c>
       <c r="S9">
-        <v>0.0675294499400262</v>
+        <v>0.06633217833715645</v>
       </c>
       <c r="T9">
-        <v>0.0675294499400262</v>
+        <v>0.08527555325313856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H10">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J10">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>4439.271837433889</v>
+        <v>4757.515007299596</v>
       </c>
       <c r="R10">
-        <v>4439.271837433889</v>
+        <v>42817.63506569636</v>
       </c>
       <c r="S10">
-        <v>0.08034105601548042</v>
+        <v>0.07578494990291652</v>
       </c>
       <c r="T10">
-        <v>0.08034105601548042</v>
+        <v>0.09742788030244021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>52.3333511289122</v>
+        <v>56.06511666666668</v>
       </c>
       <c r="H11">
-        <v>52.3333511289122</v>
+        <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5548619133230022</v>
+        <v>0.5488212317173891</v>
       </c>
       <c r="J11">
-        <v>0.5548619133230022</v>
+        <v>0.6407788047369568</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>8759.767367229886</v>
+        <v>9489.362740751978</v>
       </c>
       <c r="R11">
-        <v>8759.767367229886</v>
+        <v>56936.17644451186</v>
       </c>
       <c r="S11">
-        <v>0.1585325221129071</v>
+        <v>0.1511610323488369</v>
       </c>
       <c r="T11">
-        <v>0.1585325221129071</v>
+        <v>0.1295534182353446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H12">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I12">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J12">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>4982.068244895537</v>
+        <v>14.33336522209511</v>
       </c>
       <c r="R12">
-        <v>4982.068244895537</v>
+        <v>129.000286998856</v>
       </c>
       <c r="S12">
-        <v>0.09016447710205343</v>
+        <v>0.0002283236865527515</v>
       </c>
       <c r="T12">
-        <v>0.09016447710205343</v>
+        <v>0.0002935291615574092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H13">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I13">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J13">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>5579.752036863199</v>
+        <v>15.33876532577666</v>
       </c>
       <c r="R13">
-        <v>5579.752036863199</v>
+        <v>138.04888793199</v>
       </c>
       <c r="S13">
-        <v>0.1009812391225959</v>
+        <v>0.0002443392317213923</v>
       </c>
       <c r="T13">
-        <v>0.1009812391225959</v>
+        <v>0.0003141184819919751</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H14">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I14">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J14">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>2870.631546389457</v>
+        <v>7.702095175005778</v>
       </c>
       <c r="R14">
-        <v>2870.631546389457</v>
+        <v>69.318856575052</v>
       </c>
       <c r="S14">
-        <v>0.05195211699439325</v>
+        <v>0.0001226907106104164</v>
       </c>
       <c r="T14">
-        <v>0.05195211699439325</v>
+        <v>0.0001577291518023813</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>40.2613731190249</v>
+        <v>0.1037003333333333</v>
       </c>
       <c r="H15">
-        <v>40.2613731190249</v>
+        <v>0.311101</v>
       </c>
       <c r="I15">
-        <v>0.4268693297856042</v>
+        <v>0.001015122201704812</v>
       </c>
       <c r="J15">
-        <v>0.4268693297856042</v>
+        <v>0.001185210690619402</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>3415.244313008704</v>
+        <v>8.799694380884558</v>
       </c>
       <c r="R15">
-        <v>3415.244313008704</v>
+        <v>79.19724942796101</v>
       </c>
       <c r="S15">
-        <v>0.06180841018661081</v>
+        <v>0.0001401749435983054</v>
       </c>
       <c r="T15">
-        <v>0.06180841018661081</v>
+        <v>0.0001802065930477237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1037003333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.311101</v>
+      </c>
+      <c r="I16">
+        <v>0.001015122201704812</v>
+      </c>
+      <c r="J16">
+        <v>0.001185210690619402</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>17.5519135220485</v>
+      </c>
+      <c r="R16">
+        <v>105.311481132291</v>
+      </c>
+      <c r="S16">
+        <v>0.0002795936292219464</v>
+      </c>
+      <c r="T16">
+        <v>0.0002396273022199124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.110029</v>
+      </c>
+      <c r="I17">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J17">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>5.069369246713777</v>
+      </c>
+      <c r="R17">
+        <v>45.624323220424</v>
+      </c>
+      <c r="S17">
+        <v>8.07526395212895E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001038142600538095</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.110029</v>
+      </c>
+      <c r="I18">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J18">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>5.424955271856666</v>
+      </c>
+      <c r="R18">
+        <v>48.82459744670999</v>
+      </c>
+      <c r="S18">
+        <v>8.641695567379427E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001110962113753894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.110029</v>
+      </c>
+      <c r="I19">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J19">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>2.724047270856444</v>
+      </c>
+      <c r="R19">
+        <v>24.516425437708</v>
+      </c>
+      <c r="S19">
+        <v>4.339277661516198E-05</v>
+      </c>
+      <c r="T19">
+        <v>5.578503715405676E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.110029</v>
+      </c>
+      <c r="I20">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J20">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>3.11224191832989</v>
+      </c>
+      <c r="R20">
+        <v>28.01017726496901</v>
+      </c>
+      <c r="S20">
+        <v>4.957653260252438E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.373477175080757E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03667633333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.110029</v>
+      </c>
+      <c r="I21">
+        <v>0.0003590244992185134</v>
+      </c>
+      <c r="J21">
+        <v>0.0004191807389823952</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>6.2076929772565</v>
+      </c>
+      <c r="R21">
+        <v>37.246157863539</v>
+      </c>
+      <c r="S21">
+        <v>9.888559480574325E-05</v>
+      </c>
+      <c r="T21">
+        <v>8.475045864833201E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>43.980731</v>
+      </c>
+      <c r="H22">
+        <v>87.961462</v>
+      </c>
+      <c r="I22">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J22">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>6078.976411111379</v>
+      </c>
+      <c r="R22">
+        <v>36473.85846666827</v>
+      </c>
+      <c r="S22">
+        <v>0.09683520116494204</v>
+      </c>
+      <c r="T22">
+        <v>0.08299315717475647</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>43.980731</v>
+      </c>
+      <c r="H23">
+        <v>87.961462</v>
+      </c>
+      <c r="I23">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J23">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>6505.380358775229</v>
+      </c>
+      <c r="R23">
+        <v>39032.28215265137</v>
+      </c>
+      <c r="S23">
+        <v>0.1036276131200339</v>
+      </c>
+      <c r="T23">
+        <v>0.0888146322809467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>40.2613731190249</v>
-      </c>
-      <c r="H16">
-        <v>40.2613731190249</v>
-      </c>
-      <c r="I16">
-        <v>0.4268693297856042</v>
-      </c>
-      <c r="J16">
-        <v>0.4268693297856042</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>6739.111002831583</v>
-      </c>
-      <c r="R16">
-        <v>6739.111002831583</v>
-      </c>
-      <c r="S16">
-        <v>0.1219630863799509</v>
-      </c>
-      <c r="T16">
-        <v>0.1219630863799509</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>43.980731</v>
+      </c>
+      <c r="H24">
+        <v>87.961462</v>
+      </c>
+      <c r="I24">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J24">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>3266.564003603271</v>
+      </c>
+      <c r="R24">
+        <v>19599.38402161962</v>
+      </c>
+      <c r="S24">
+        <v>0.05203480997703868</v>
+      </c>
+      <c r="T24">
+        <v>0.04459672836974935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>43.980731</v>
+      </c>
+      <c r="H25">
+        <v>87.961462</v>
+      </c>
+      <c r="I25">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J25">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>3732.070852693131</v>
+      </c>
+      <c r="R25">
+        <v>22392.42511615879</v>
+      </c>
+      <c r="S25">
+        <v>0.05945011254226672</v>
+      </c>
+      <c r="T25">
+        <v>0.05095205539846162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>43.980731</v>
+      </c>
+      <c r="H26">
+        <v>87.961462</v>
+      </c>
+      <c r="I26">
+        <v>0.4305272225287646</v>
+      </c>
+      <c r="J26">
+        <v>0.335109386099409</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>7444.006806295811</v>
+      </c>
+      <c r="R26">
+        <v>29776.02722518324</v>
+      </c>
+      <c r="S26">
+        <v>0.1185794857244833</v>
+      </c>
+      <c r="T26">
+        <v>0.06775281287549489</v>
       </c>
     </row>
   </sheetData>
